--- a/Bitacoras/Bitacora_2.xlsx
+++ b/Bitacoras/Bitacora_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harol\Desktop\Notas-sena\Bitacoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a195dc11b842bbc7/Escritorio/Notas-sena/Bitacoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C806F-3889-4E12-841F-D0A3C8FF3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7A0C806F-3889-4E12-841F-D0A3C8FF3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D088F1E-FAC9-45F2-A9F7-D7F59BEFF003}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,12 +417,6 @@
     <t>Reuniones de semanal de equipo</t>
   </si>
   <si>
-    <t>Codigo privado de la empresa NEWSOL, se muestra un recorte del mismo</t>
-  </si>
-  <si>
-    <t>Se utiliza la herrramienta de notion, se muestra en la evidencia las actas de reunion generadas</t>
-  </si>
-  <si>
     <t>Commits generados</t>
   </si>
   <si>
@@ -432,10 +426,16 @@
     <t>hysanchez334@sena.edu.co</t>
   </si>
   <si>
-    <t xml:space="preserve">Solución de errores del lado frontend. </t>
-  </si>
-  <si>
     <t>07/11/2023 A 22/11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solución de errores del lado front-end. </t>
+  </si>
+  <si>
+    <t>Código privado de la empresa NEWSOL, se muestra un recorte del mismo</t>
+  </si>
+  <si>
+    <t>Se utiliza la herramienta de Notion, se muestra en la evidencia las actas de reunión generadas</t>
   </si>
 </sst>
 </file>
@@ -987,6 +987,69 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1002,9 +1065,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1012,9 +1072,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1081,33 +1138,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1174,41 +1204,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1590,6 +1590,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1147280</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DAFFD6-4006-216C-ACA1-FE3B54BE97BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5837464" y="22084393"/>
+          <a:ext cx="1419423" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1670,6 +1714,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2807,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2838,294 +2886,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="78" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
     </row>
     <row r="2" spans="2:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
     </row>
     <row r="3" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
     </row>
     <row r="4" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="78"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="57"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="78"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
     </row>
     <row r="9" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="101" t="s">
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="68" t="s">
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
     </row>
     <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="68" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="101">
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="111">
         <v>2</v>
       </c>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -3154,68 +3202,68 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="105" t="s">
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105" t="s">
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="105"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115"/>
+      <c r="Y12" s="115"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="99">
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="109">
         <v>3002132878</v>
       </c>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="116" t="s">
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -3244,100 +3292,100 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="70" t="s">
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70" t="s">
+      <c r="F16" s="89"/>
+      <c r="G16" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72" t="s">
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="70" t="s">
+      <c r="L16" s="92"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="70" t="s">
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="70"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="70" t="s">
+      <c r="T16" s="89"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="104"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="114"/>
     </row>
     <row r="17" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="104"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="114"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -3366,72 +3414,72 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="58" t="s">
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="58" t="s">
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="65" t="s">
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="114"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="124"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="99">
+      <c r="B20" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109">
         <v>1233496433</v>
       </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="58">
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="79">
         <v>3118047047</v>
       </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="114"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="124"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -3460,64 +3508,64 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68" t="s">
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="108">
+      <c r="B23" s="118">
         <v>2671339</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="108" t="s">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="110"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="119"/>
+      <c r="X23" s="119"/>
+      <c r="Y23" s="120"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -3546,44 +3594,44 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="101" t="s">
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="101" t="s">
+      <c r="L25" s="112"/>
+      <c r="M25" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="102"/>
-      <c r="O25" s="101" t="s">
+      <c r="N25" s="112"/>
+      <c r="O25" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="101" t="s">
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="103"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="113"/>
     </row>
     <row r="26" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
@@ -3593,22 +3641,22 @@
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="87">
+      <c r="K26" s="67">
         <v>45237</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="87">
+      <c r="L26" s="68"/>
+      <c r="M26" s="67">
         <v>45252</v>
       </c>
-      <c r="N26" s="88"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="120"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="47" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="V26" s="48"/>
       <c r="W26" s="48"/>
@@ -3616,160 +3664,160 @@
       <c r="Y26" s="49"/>
     </row>
     <row r="27" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="93"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="75"/>
     </row>
     <row r="28" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="93"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="75"/>
     </row>
     <row r="29" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="93"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="75"/>
     </row>
     <row r="30" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="93"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="75"/>
     </row>
     <row r="31" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="93"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="75"/>
     </row>
     <row r="32" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="93"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="75"/>
     </row>
     <row r="33" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="50"/>
@@ -3781,16 +3829,16 @@
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
       <c r="J33" s="52"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="125"/>
-      <c r="S33" s="125"/>
-      <c r="T33" s="126"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="66"/>
       <c r="U33" s="50"/>
       <c r="V33" s="51"/>
       <c r="W33" s="51"/>
@@ -3809,22 +3857,22 @@
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
       <c r="J34" s="49"/>
-      <c r="K34" s="87">
+      <c r="K34" s="67">
         <v>45238</v>
       </c>
-      <c r="L34" s="88"/>
-      <c r="M34" s="87">
+      <c r="L34" s="68"/>
+      <c r="M34" s="67">
         <v>45238</v>
       </c>
-      <c r="N34" s="88"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="119"/>
-      <c r="T34" s="120"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="60"/>
       <c r="U34" s="47" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="V34" s="48"/>
       <c r="W34" s="48"/>
@@ -3841,79 +3889,79 @@
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="123"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="93"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="75"/>
     </row>
     <row r="36" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="128">
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="129">
         <v>45245</v>
       </c>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128">
+      <c r="L36" s="129"/>
+      <c r="M36" s="129">
         <v>45245</v>
       </c>
-      <c r="N36" s="128"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="123"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="92"/>
-      <c r="X36" s="92"/>
-      <c r="Y36" s="93"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="75"/>
     </row>
     <row r="37" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="123"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="93"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="75"/>
     </row>
     <row r="38" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
@@ -3927,25 +3975,25 @@
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="49"/>
-      <c r="K38" s="87">
+      <c r="K38" s="67">
         <v>45252</v>
       </c>
-      <c r="L38" s="88"/>
-      <c r="M38" s="87">
+      <c r="L38" s="68"/>
+      <c r="M38" s="67">
         <v>45252</v>
       </c>
-      <c r="N38" s="88"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="123"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="92"/>
-      <c r="W38" s="92"/>
-      <c r="X38" s="92"/>
-      <c r="Y38" s="93"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="75"/>
     </row>
     <row r="39" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="50"/>
@@ -3957,16 +4005,16 @@
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="125"/>
-      <c r="T39" s="126"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="66"/>
       <c r="U39" s="50"/>
       <c r="V39" s="51"/>
       <c r="W39" s="51"/>
@@ -3985,14 +4033,14 @@
       <c r="H40" s="48"/>
       <c r="I40" s="48"/>
       <c r="J40" s="49"/>
-      <c r="K40" s="87">
+      <c r="K40" s="67">
         <v>45237</v>
       </c>
-      <c r="L40" s="88"/>
-      <c r="M40" s="87">
+      <c r="L40" s="68"/>
+      <c r="M40" s="67">
         <v>45252</v>
       </c>
-      <c r="N40" s="88"/>
+      <c r="N40" s="68"/>
       <c r="O40" s="47"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
@@ -4000,7 +4048,7 @@
       <c r="S40" s="48"/>
       <c r="T40" s="49"/>
       <c r="U40" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -4017,10 +4065,10 @@
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="90"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="72"/>
       <c r="O41" s="50"/>
       <c r="P41" s="51"/>
       <c r="Q41" s="51"/>
@@ -4045,22 +4093,22 @@
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="49"/>
-      <c r="K42" s="87">
+      <c r="K42" s="67">
         <v>45247</v>
       </c>
-      <c r="L42" s="88"/>
-      <c r="M42" s="87">
+      <c r="L42" s="68"/>
+      <c r="M42" s="67">
         <v>45247</v>
       </c>
-      <c r="N42" s="88"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="119"/>
-      <c r="S42" s="119"/>
-      <c r="T42" s="120"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="60"/>
       <c r="U42" s="47" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="V42" s="48"/>
       <c r="W42" s="48"/>
@@ -4068,56 +4116,56 @@
       <c r="Y42" s="49"/>
     </row>
     <row r="43" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="91"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="94"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="123"/>
-      <c r="U43" s="91"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="93"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="75"/>
     </row>
     <row r="44" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="91"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="123"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="93"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="75"/>
     </row>
     <row r="45" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="50"/>
@@ -4129,16 +4177,16 @@
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
       <c r="J45" s="52"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="126"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="66"/>
       <c r="U45" s="50"/>
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
@@ -4201,7 +4249,7 @@
     </row>
     <row r="48" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
@@ -4228,14 +4276,14 @@
       <c r="Y48" s="10"/>
     </row>
     <row r="49" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="117"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="127"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -4265,15 +4313,15 @@
       <c r="H50" s="53"/>
       <c r="I50" s="53"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="60" t="s">
+      <c r="K50" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
       <c r="R50" s="13"/>
       <c r="S50" s="11"/>
       <c r="T50" s="53" t="s">
@@ -4359,25 +4407,25 @@
       <c r="H54" s="53"/>
       <c r="I54" s="53"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="60" t="s">
+      <c r="K54" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
       <c r="R54" s="13"/>
-      <c r="S54" s="129" t="s">
+      <c r="S54" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="T54" s="64"/>
-      <c r="U54" s="64"/>
-      <c r="V54" s="64"/>
-      <c r="W54" s="64"/>
-      <c r="X54" s="64"/>
-      <c r="Y54" s="64"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
     </row>
     <row r="55" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q55" s="46"/>
@@ -4387,58 +4435,58 @@
       <c r="U55" s="46"/>
     </row>
     <row r="56" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-      <c r="N56" s="64"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="64"/>
-      <c r="V56" s="64"/>
-      <c r="W56" s="64"/>
-      <c r="X56" s="64"/>
-      <c r="Y56" s="64"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="57"/>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="64"/>
-      <c r="V57" s="64"/>
-      <c r="W57" s="64"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="64"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="92">
@@ -4739,15 +4787,15 @@
       <c r="X7" s="131"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
       <c r="J8" s="140" t="s">
         <v>24</v>
       </c>
@@ -4795,66 +4843,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104" t="s">
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104" t="s">
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4915,15 +4963,15 @@
       <c r="X13" s="131"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="140" t="s">
         <v>29</v>
       </c>
@@ -4982,12 +5030,12 @@
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
-      <c r="J16" s="117" t="s">
+      <c r="J16" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
       <c r="N16" s="53" t="s">
         <v>13</v>
       </c>
